--- a/data/trans_dic/P11_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.237093891228274</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3967277664403352</v>
+        <v>0.3967277664403353</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3691888899566041</v>
@@ -685,7 +685,7 @@
         <v>0.3502287489659279</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4886535123334758</v>
+        <v>0.4886535123334759</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3360996888501308</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2439471597454032</v>
+        <v>0.2479662321069709</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1766118584630183</v>
+        <v>0.179302237470835</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.211347099573136</v>
+        <v>0.212369723976708</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3502217894043744</v>
+        <v>0.3511770080669103</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3379458029666209</v>
+        <v>0.3363533828504732</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3130537237755891</v>
+        <v>0.3151111116684611</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3215637407692505</v>
+        <v>0.3252019140910363</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4499783875890515</v>
+        <v>0.4517906913926327</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3086195819074034</v>
+        <v>0.3120717320910203</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2564955216852053</v>
+        <v>0.254991651326455</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2771004758599338</v>
+        <v>0.2767071633056981</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4206232136895912</v>
+        <v>0.41874228085048</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3184588818326086</v>
+        <v>0.3242160411829089</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2292331683046707</v>
+        <v>0.2316999505977785</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2618783792493499</v>
+        <v>0.2639909365183115</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4429340259058316</v>
+        <v>0.447876428458527</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4022369342953118</v>
+        <v>0.400437982412743</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3682930843534269</v>
+        <v>0.3738729077993383</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3777064120875222</v>
+        <v>0.377417258869047</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5220783675669489</v>
+        <v>0.5257499818431239</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3610847968844393</v>
+        <v>0.3592051311097193</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2963933844344687</v>
+        <v>0.2962577893328251</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3161260453296596</v>
+        <v>0.3157506106212045</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4780426816725484</v>
+        <v>0.4756784882834219</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.2255012734749662</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3452482754722088</v>
+        <v>0.3452482754722087</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1619766401554895</v>
+        <v>0.162203171438903</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1610215470620968</v>
+        <v>0.163811086262617</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1457161116424827</v>
+        <v>0.1464031535249401</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2538387456263758</v>
+        <v>0.2526791554900403</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.248971477630778</v>
+        <v>0.2505967850403286</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3054004086412981</v>
+        <v>0.3042904848180455</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.248286925085726</v>
+        <v>0.2453113558703504</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3742906322883526</v>
+        <v>0.372903816673308</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2112590454252175</v>
+        <v>0.2125318947487515</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2466465311601635</v>
+        <v>0.2456306268268329</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2062090273952779</v>
+        <v>0.2066510403456736</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3284321604103938</v>
+        <v>0.3251913184214683</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2085115242369334</v>
+        <v>0.2087956971685569</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.214580637919816</v>
+        <v>0.216860131246818</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1950661387884491</v>
+        <v>0.1984143690945051</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3153284439349218</v>
+        <v>0.3146469664285685</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3039863427746428</v>
+        <v>0.3054406965379351</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.365968476877534</v>
+        <v>0.3629790832719362</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3055567934199522</v>
+        <v>0.3047173255963811</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4233192979731989</v>
+        <v>0.4215246809870653</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2469983574625424</v>
+        <v>0.2483235978899645</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2854464838214242</v>
+        <v>0.2888165405664646</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2432111482947208</v>
+        <v>0.2446340106842012</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3649535658391316</v>
+        <v>0.3650018048327027</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.248620987205644</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3366384684847587</v>
+        <v>0.3366384684847588</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2004174370648539</v>
@@ -969,7 +969,7 @@
         <v>0.1976991159922037</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2821180656865184</v>
+        <v>0.2821180656865185</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1209620514444902</v>
+        <v>0.1214919500695653</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1597954933417459</v>
+        <v>0.1610793670667136</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1279464330287082</v>
+        <v>0.1267402036615949</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2022770756236435</v>
+        <v>0.2032240450026682</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2401984476159874</v>
+        <v>0.2399668787537859</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2562355759070445</v>
+        <v>0.2532725333724944</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2192544175306701</v>
+        <v>0.216519577048508</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3129364500406815</v>
+        <v>0.310153747983444</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1833568073961581</v>
+        <v>0.1841832914169132</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2154200319831211</v>
+        <v>0.2156702096910626</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1785361199312716</v>
+        <v>0.1774819781348184</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2642865908030053</v>
+        <v>0.2648911700288596</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1627370130249293</v>
+        <v>0.1604580408333059</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2167384420095477</v>
+        <v>0.2191965901805411</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1765821213866742</v>
+        <v>0.17500776997922</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2547435096537807</v>
+        <v>0.2550492055815683</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.296376944054174</v>
+        <v>0.2956688296053806</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3165330004302672</v>
+        <v>0.3178143391218176</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2828291571917909</v>
+        <v>0.2820340122535046</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3625882266322334</v>
+        <v>0.3607455665902692</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2191103725638668</v>
+        <v>0.2180649655934165</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2568504417432864</v>
+        <v>0.2580049793635472</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2207254941659255</v>
+        <v>0.2187355774317342</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3026034570604327</v>
+        <v>0.2982872144270629</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1059606855382217</v>
+        <v>0.101169274865435</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1226447711070089</v>
+        <v>0.1203934347471846</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1207944244129979</v>
+        <v>0.1198193985224359</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1914971779337121</v>
+        <v>0.1946357581481596</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1359933070066357</v>
+        <v>0.1401758532751038</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1931944615795968</v>
+        <v>0.1968532677908717</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1768159015346895</v>
+        <v>0.1808157484819843</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2740499855982922</v>
+        <v>0.2742518522044539</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1284946049613694</v>
+        <v>0.1294207204984427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1647254845825082</v>
+        <v>0.1655153798967305</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1571403859193073</v>
+        <v>0.1579572532224333</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2393493695258135</v>
+        <v>0.2374240451316327</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1714486476194509</v>
+        <v>0.1738124181789529</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1938967390874475</v>
+        <v>0.1920219775991668</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1888888757300988</v>
+        <v>0.1913342851780255</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2482345916026645</v>
+        <v>0.2496422605334143</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2217941695207217</v>
+        <v>0.2277538955901847</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2786250222837581</v>
+        <v>0.2778352068080514</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2521934139436332</v>
+        <v>0.2562098550014114</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3263407096618676</v>
+        <v>0.3261091583006042</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1804180850844996</v>
+        <v>0.1806437788261966</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.218955538562298</v>
+        <v>0.2202917671706366</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2075018033057603</v>
+        <v>0.2107013784523775</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.277805074370778</v>
+        <v>0.2768409768389974</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1680841935864946</v>
+        <v>0.1675378459551246</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1745655640895176</v>
+        <v>0.1745220390335362</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1713226349477731</v>
+        <v>0.1728729394296479</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2492072826139337</v>
+        <v>0.2498726597259637</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.273980066028537</v>
+        <v>0.2738425346892659</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2947888244079895</v>
+        <v>0.2947388863203775</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2709855665949811</v>
+        <v>0.2716972749765738</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3567356716679446</v>
+        <v>0.3586614563834688</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2243142636405658</v>
+        <v>0.2252334978382628</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2406092494942429</v>
+        <v>0.2410423921363138</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.226660946072154</v>
+        <v>0.2275837734836195</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3091554852863563</v>
+        <v>0.3098928184189437</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1940000617001096</v>
+        <v>0.1937460543671942</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2017344061378857</v>
+        <v>0.2017762252646051</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1983732839308096</v>
+        <v>0.1999982581790093</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2797402065844554</v>
+        <v>0.2798078494934133</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.30551144302398</v>
+        <v>0.3053979323514781</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3271540969947749</v>
+        <v>0.3268314275424211</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3035291933799092</v>
+        <v>0.3045680454517075</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3841717484316241</v>
+        <v>0.3864229913394946</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2465122258900642</v>
+        <v>0.2469312133154684</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2619666599493993</v>
+        <v>0.2616792325550213</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2483379819713163</v>
+        <v>0.2486491293498193</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3303202773354871</v>
+        <v>0.3313498708381848</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>142500</v>
+        <v>144847</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>183981</v>
+        <v>186783</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>236959</v>
+        <v>238106</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>174305</v>
+        <v>174781</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>311699</v>
+        <v>310230</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>349680</v>
+        <v>351978</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>400714</v>
+        <v>405248</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>280598</v>
+        <v>281728</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>464927</v>
+        <v>470128</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>553703</v>
+        <v>550456</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>655988</v>
+        <v>655057</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>471636</v>
+        <v>469527</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>186025</v>
+        <v>189388</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>238798</v>
+        <v>241367</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>293614</v>
+        <v>295983</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>220448</v>
+        <v>222908</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>370996</v>
+        <v>369337</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>411383</v>
+        <v>417615</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>470676</v>
+        <v>470316</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>325558</v>
+        <v>327847</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>543965</v>
+        <v>541133</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>639831</v>
+        <v>639538</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>748374</v>
+        <v>747486</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>536020</v>
+        <v>533369</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>174594</v>
+        <v>174838</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>156884</v>
+        <v>159602</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>131460</v>
+        <v>132080</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>243720</v>
+        <v>242607</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>263297</v>
+        <v>265016</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>334188</v>
+        <v>332974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>248591</v>
+        <v>245612</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>417424</v>
+        <v>415878</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>451129</v>
+        <v>453847</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>510205</v>
+        <v>508103</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>392496</v>
+        <v>393337</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>681621</v>
+        <v>674895</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>224753</v>
+        <v>225060</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>209067</v>
+        <v>211288</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>175981</v>
+        <v>179002</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>302759</v>
+        <v>302104</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>321477</v>
+        <v>323015</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>400465</v>
+        <v>397194</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>305931</v>
+        <v>305091</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>472103</v>
+        <v>470102</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>527448</v>
+        <v>530278</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>590465</v>
+        <v>597436</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>462925</v>
+        <v>465634</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>757417</v>
+        <v>757517</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>135670</v>
+        <v>136265</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>140907</v>
+        <v>142039</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>104512</v>
+        <v>103527</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>211679</v>
+        <v>212670</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>238743</v>
+        <v>238513</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>224410</v>
+        <v>221815</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>168410</v>
+        <v>166309</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>327640</v>
+        <v>324726</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>387898</v>
+        <v>389646</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>378621</v>
+        <v>379060</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>282970</v>
+        <v>281299</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>553274</v>
+        <v>554540</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>182525</v>
+        <v>179969</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>191119</v>
+        <v>193287</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>144240</v>
+        <v>142954</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>266584</v>
+        <v>266904</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>294581</v>
+        <v>293877</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>277218</v>
+        <v>278341</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>217241</v>
+        <v>216631</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>379624</v>
+        <v>377695</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>463535</v>
+        <v>461324</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>451439</v>
+        <v>453468</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>349838</v>
+        <v>346684</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>633489</v>
+        <v>624454</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>47386</v>
+        <v>45243</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>60615</v>
+        <v>59502</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>60683</v>
+        <v>60194</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>186393</v>
+        <v>189448</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>46395</v>
+        <v>47822</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>87285</v>
+        <v>88938</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>86586</v>
+        <v>88545</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>248450</v>
+        <v>248633</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>101300</v>
+        <v>102030</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>155835</v>
+        <v>156582</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>155894</v>
+        <v>156704</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>449961</v>
+        <v>446341</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>76672</v>
+        <v>77729</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>95829</v>
+        <v>94903</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>94892</v>
+        <v>96121</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>241618</v>
+        <v>242988</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>75667</v>
+        <v>77700</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>125883</v>
+        <v>125526</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>123499</v>
+        <v>125465</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>295856</v>
+        <v>295646</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>142234</v>
+        <v>142412</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>207138</v>
+        <v>208402</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>205856</v>
+        <v>209030</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>522255</v>
+        <v>520442</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>543051</v>
+        <v>541286</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>592136</v>
+        <v>591988</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>572657</v>
+        <v>577839</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>866659</v>
+        <v>868973</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>908235</v>
+        <v>907780</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1043215</v>
+        <v>1043038</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>949850</v>
+        <v>952345</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1317208</v>
+        <v>1324319</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1468316</v>
+        <v>1474333</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1667641</v>
+        <v>1670643</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1552113</v>
+        <v>1558432</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2216662</v>
+        <v>2221949</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>626781</v>
+        <v>625960</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>684294</v>
+        <v>684436</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>663075</v>
+        <v>668507</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>972842</v>
+        <v>973077</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1012761</v>
+        <v>1012385</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1157751</v>
+        <v>1156609</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1063921</v>
+        <v>1067562</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1418513</v>
+        <v>1426826</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1613619</v>
+        <v>1616362</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1815667</v>
+        <v>1813675</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1700551</v>
+        <v>1702682</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2368415</v>
+        <v>2375797</v>
       </c>
     </row>
     <row r="24">
